--- a/excel/class_notes/lookups_ifs_practice_dataset.xlsx
+++ b/excel/class_notes/lookups_ifs_practice_dataset.xlsx
@@ -1,32 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\data_science_\excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8904" activeTab="2"/>
+    <workbookView windowWidth="19200" windowHeight="6920" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="vlookup" sheetId="1" r:id="rId1"/>
     <sheet name="match_intex" sheetId="2" r:id="rId2"/>
     <sheet name="datasets" sheetId="3" r:id="rId3"/>
+    <sheet name="datasets2" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="87">
   <si>
     <t>Use the VLOOKUP function to find where Tina and Dani work:</t>
   </si>
@@ -190,7 +194,17 @@
     <t>Jack Anderson</t>
   </si>
   <si>
+    <t>ANSWER</t>
+  </si>
+  <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF212121"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>Q1:</t>
     </r>
     <r>
@@ -198,13 +212,20 @@
         <sz val="12"/>
         <color rgb="FF212121"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t> Find the Sales Amount for Order ID 105.</t>
     </r>
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF212121"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>Q2:</t>
     </r>
     <r>
@@ -212,13 +233,20 @@
         <sz val="12"/>
         <color rgb="FF212121"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t> Retrieve the Product name for Customer Name "David Brown".</t>
     </r>
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF212121"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>Q1:</t>
     </r>
     <r>
@@ -226,13 +254,20 @@
         <sz val="12"/>
         <color rgb="FF212121"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t> Find the Quantity sold for the Order ID 108.</t>
     </r>
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF212121"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>Q2:</t>
     </r>
     <r>
@@ -240,13 +275,20 @@
         <sz val="12"/>
         <color rgb="FF212121"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t> Retrieve the Region for the Customer Name "Emily Davis".</t>
     </r>
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF212121"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>Q1:</t>
     </r>
     <r>
@@ -254,13 +296,20 @@
         <sz val="12"/>
         <color rgb="FF212121"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t> Calculate the total Sales Amount for the North America region.</t>
     </r>
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF212121"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>Q2:</t>
     </r>
     <r>
@@ -268,13 +317,20 @@
         <sz val="12"/>
         <color rgb="FF212121"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t> Find the total Sales Amount for "Laptop" products.</t>
     </r>
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF212121"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>Q1:</t>
     </r>
     <r>
@@ -282,13 +338,20 @@
         <sz val="12"/>
         <color rgb="FF212121"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t> Count the number of orders placed in the Europe region.</t>
     </r>
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF212121"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>Q2:</t>
     </r>
     <r>
@@ -296,13 +359,20 @@
         <sz val="12"/>
         <color rgb="FF212121"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t> Count the number of orders for "Smartphone" products.</t>
     </r>
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF212121"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>Q1:</t>
     </r>
     <r>
@@ -310,13 +380,20 @@
         <sz val="12"/>
         <color rgb="FF212121"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t> Calculate the average Sales Amount for orders in the Asia region.</t>
     </r>
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF212121"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>Q2:</t>
     </r>
     <r>
@@ -324,40 +401,122 @@
         <sz val="12"/>
         <color rgb="FF212121"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t> Find the average Quantity for "Tablet" products.</t>
     </r>
   </si>
   <si>
-    <t>ANSWER</t>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Salary</t>
+  </si>
+  <si>
+    <r>
+      <t>William</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+      </rPr>
+      <t>Manship</t>
+    </r>
+  </si>
+  <si>
+    <t>Hong Kong</t>
+  </si>
+  <si>
+    <t>William Johnson</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Thomas Bettle</t>
+  </si>
+  <si>
+    <t>Bangkok</t>
+  </si>
+  <si>
+    <t>Ian Nash</t>
+  </si>
+  <si>
+    <t>Cairo</t>
+  </si>
+  <si>
+    <t>Margaret Turley</t>
+  </si>
+  <si>
+    <t>Shanghai</t>
+  </si>
+  <si>
+    <t>Michael Kaye</t>
+  </si>
+  <si>
+    <t>Capetown</t>
+  </si>
+  <si>
+    <t>Paul Bell</t>
+  </si>
+  <si>
+    <t>Thomas Davies</t>
+  </si>
+  <si>
+    <t>Eric Green</t>
+  </si>
+  <si>
+    <t>Warsaw</t>
+  </si>
+  <si>
+    <t>Williamr Black</t>
+  </si>
+  <si>
+    <t>Estelle Cormack</t>
+  </si>
+  <si>
+    <t>Christopher Fallon</t>
+  </si>
+  <si>
+    <t>Delhi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="dd/mm/yyyy"/>
+  </numFmts>
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -365,48 +524,232 @@
       <sz val="9"/>
       <color rgb="FF212121"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF212121"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="13.5"/>
       <color rgb="FF212121"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF212121"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF212121"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -422,23 +765,212 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -452,65 +984,337 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -559,7 +1363,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -594,7 +1398,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -768,690 +1572,891 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E16"/>
+      <selection activeCell="A1" sqref="A1:E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="4"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="B4" s="14"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="B5" s="14"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="16">
         <v>35</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="11">
         <v>25</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="17">
         <v>48</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="11">
         <v>37</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="17">
         <v>52</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="11">
         <v>32</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="17">
         <v>33</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D11"/>
+      <selection activeCell="A1" sqref="A1:D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="8">
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="13">
         <v>9584423</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="8">
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="13">
         <v>5034521</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="8">
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="13">
         <v>9543669</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="8">
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="13">
         <v>9995553</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="8">
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="13">
         <v>8595323</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="8">
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="13">
         <v>9359305</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="2" t="s">
+      <c r="B11" s="14"/>
+      <c r="C11" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="1"/>
+      <c r="D11" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="6"/>
   <cols>
-    <col min="2" max="2" width="15.21875" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" customWidth="1"/>
+    <col min="2" max="2" width="15.2181818181818" customWidth="1"/>
+    <col min="3" max="3" width="18.4454545454545" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="24" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+    <row r="1" ht="23" spans="1:7">
+      <c r="A1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="10">
+    <row r="2" spans="1:7">
+      <c r="A2" s="3">
         <v>101</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="3">
         <v>1200</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="3">
         <v>3</v>
       </c>
-      <c r="G2" s="11">
+      <c r="G2" s="4">
         <v>45306</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="10">
+    <row r="3" spans="1:7">
+      <c r="A3" s="3">
         <v>102</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="3">
         <v>1500</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="3">
         <v>2</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="4">
         <v>45308</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="10">
+    <row r="4" spans="1:7">
+      <c r="A4" s="3">
         <v>103</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="3">
         <v>800</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="3">
         <v>5</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="4">
         <v>45311</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="10">
+    <row r="5" ht="23" spans="1:7">
+      <c r="A5" s="3">
         <v>104</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="3">
         <v>600</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="3">
         <v>10</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="4">
         <v>45313</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="10">
+    <row r="6" spans="1:7">
+      <c r="A6" s="3">
         <v>105</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="3">
         <v>1300</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="3">
         <v>4</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="4">
         <v>45316</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="10">
+    <row r="7" spans="1:7">
+      <c r="A7" s="3">
         <v>106</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="3">
         <v>1700</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="3">
         <v>1</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="4">
         <v>45319</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="10">
+    <row r="8" spans="1:7">
+      <c r="A8" s="3">
         <v>107</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="3">
         <v>900</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="3">
         <v>2</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="4">
         <v>45323</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="10">
+    <row r="9" ht="23" spans="1:7">
+      <c r="A9" s="3">
         <v>108</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="3">
         <v>500</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="3">
         <v>8</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="4">
         <v>45327</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="10">
+    <row r="10" spans="1:7">
+      <c r="A10" s="3">
         <v>109</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="3">
         <v>1400</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="3">
         <v>6</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="4">
         <v>45332</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="10">
+    <row r="11" spans="1:7">
+      <c r="A11" s="3">
         <v>110</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="3">
         <v>1600</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="3">
         <v>3</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G11" s="4">
         <v>45337</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A14" s="12"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="13"/>
-      <c r="G15" s="16" t="s">
+    <row r="14" ht="17" spans="1:1">
+      <c r="A14" s="5"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="6"/>
+      <c r="G15" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" ht="15.5" spans="1:7">
+      <c r="A16" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G16" s="9"/>
+    </row>
+    <row r="17" ht="15.5" spans="1:7">
+      <c r="A17" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G17" s="9"/>
+    </row>
+    <row r="18" ht="17" spans="1:7">
+      <c r="A18" s="5"/>
+      <c r="G18" s="9"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="6"/>
+      <c r="G19" s="9"/>
+    </row>
+    <row r="20" ht="15.5" spans="1:7">
+      <c r="A20" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G20" s="9"/>
+    </row>
+    <row r="21" ht="15.5" spans="1:7">
+      <c r="A21" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G21" s="9"/>
+    </row>
+    <row r="22" ht="17" spans="1:7">
+      <c r="A22" s="5"/>
+      <c r="G22" s="9"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="6"/>
+      <c r="G23" s="9"/>
+    </row>
+    <row r="24" ht="15.5" spans="1:7">
+      <c r="A24" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G24" s="9"/>
+    </row>
+    <row r="25" ht="15.5" spans="1:7">
+      <c r="A25" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G25" s="9"/>
+    </row>
+    <row r="26" ht="17" spans="1:7">
+      <c r="A26" s="5"/>
+      <c r="G26" s="9"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="6"/>
+      <c r="G27" s="9"/>
+    </row>
+    <row r="28" ht="15.5" spans="1:7">
+      <c r="A28" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="G28" s="9"/>
+    </row>
+    <row r="29" ht="15.5" spans="1:7">
+      <c r="A29" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G29" s="9"/>
+    </row>
+    <row r="30" ht="17" spans="1:1">
+      <c r="A30" s="5"/>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="6"/>
+    </row>
+    <row r="32" ht="15.5" spans="1:1">
+      <c r="A32" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" ht="15.5" spans="1:1">
+      <c r="A33" s="8" t="s">
         <v>64</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="G16" s="15"/>
-    </row>
-    <row r="17" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="G17" s="15"/>
-    </row>
-    <row r="18" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A18" s="12"/>
-      <c r="G18" s="15"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="13"/>
-      <c r="G19" s="15"/>
-    </row>
-    <row r="20" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="G20" s="15"/>
-    </row>
-    <row r="21" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="G21" s="15"/>
-    </row>
-    <row r="22" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A22" s="12"/>
-      <c r="G22" s="15"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="13"/>
-      <c r="G23" s="15"/>
-    </row>
-    <row r="24" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="G24" s="15"/>
-    </row>
-    <row r="25" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="G25" s="15"/>
-    </row>
-    <row r="26" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A26" s="12"/>
-      <c r="G26" s="15"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="13"/>
-      <c r="G27" s="15"/>
-    </row>
-    <row r="28" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="G28" s="15"/>
-    </row>
-    <row r="29" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="G29" s="15"/>
-    </row>
-    <row r="30" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A30" s="12"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="13"/>
-    </row>
-    <row r="32" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="14" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A33" s="14" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="16.9090909090909" customWidth="1"/>
+    <col min="2" max="2" width="19.1818181818182" customWidth="1"/>
+    <col min="3" max="3" width="10.1818181818182" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="1">
+        <v>13836</v>
+      </c>
+      <c r="D2" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="1">
+        <v>11771</v>
+      </c>
+      <c r="D3" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="1">
+        <v>13046</v>
+      </c>
+      <c r="D4" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="1">
+        <v>18276</v>
+      </c>
+      <c r="D5" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="1">
+        <v>19327</v>
+      </c>
+      <c r="D6" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="1">
+        <v>18996</v>
+      </c>
+      <c r="D7" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="1">
+        <v>10387</v>
+      </c>
+      <c r="D8" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="1">
+        <v>12566</v>
+      </c>
+      <c r="D9" s="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="1">
+        <v>16406</v>
+      </c>
+      <c r="D10" s="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="1">
+        <v>15784</v>
+      </c>
+      <c r="D11" s="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="1">
+        <v>10959</v>
+      </c>
+      <c r="D12" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" s="1">
+        <v>14562</v>
+      </c>
+      <c r="D13" s="1">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>